--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Dlk1-Notch3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Dlk1-Notch3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,16 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Dlk1</t>
+  </si>
+  <si>
+    <t>Notch3</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Dlk1</t>
-  </si>
-  <si>
-    <t>Notch3</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.3512263333333334</v>
+        <v>0.02797766666666666</v>
       </c>
       <c r="H2">
-        <v>1.053679</v>
+        <v>0.08393299999999999</v>
       </c>
       <c r="I2">
-        <v>0.0401332777415861</v>
+        <v>0.003707942280450989</v>
       </c>
       <c r="J2">
-        <v>0.04257802749770245</v>
+        <v>0.003817227163059767</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.819868333333334</v>
+        <v>2.804921333333333</v>
       </c>
       <c r="N2">
-        <v>26.459605</v>
+        <v>8.414764</v>
       </c>
       <c r="O2">
-        <v>0.06009452733181694</v>
+        <v>0.05565711987895654</v>
       </c>
       <c r="P2">
-        <v>0.08592393201160566</v>
+        <v>0.07709290030149896</v>
       </c>
       <c r="Q2">
-        <v>3.097770015199445</v>
+        <v>0.07847515409022221</v>
       </c>
       <c r="R2">
-        <v>27.879930136795</v>
+        <v>0.7062763868119999</v>
       </c>
       <c r="S2">
-        <v>0.002411790356157146</v>
+        <v>0.0002063733880073122</v>
       </c>
       <c r="T2">
-        <v>0.003658471539900862</v>
+        <v>0.0002942811131099403</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.3512263333333334</v>
+        <v>0.02797766666666666</v>
       </c>
       <c r="H3">
-        <v>1.053679</v>
+        <v>0.08393299999999999</v>
       </c>
       <c r="I3">
-        <v>0.0401332777415861</v>
+        <v>0.003707942280450989</v>
       </c>
       <c r="J3">
-        <v>0.04257802749770245</v>
+        <v>0.003817227163059767</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +623,22 @@
         <v>16.457622</v>
       </c>
       <c r="O3">
-        <v>0.03737822295894862</v>
+        <v>0.1088543707912132</v>
       </c>
       <c r="P3">
-        <v>0.05344386636915803</v>
+        <v>0.1507785378230163</v>
       </c>
       <c r="Q3">
-        <v>1.926783410148667</v>
+        <v>0.1534819541473333</v>
       </c>
       <c r="R3">
-        <v>17.341050691338</v>
+        <v>1.381337587326</v>
       </c>
       <c r="S3">
-        <v>0.001500110603498415</v>
+        <v>0.0004036257238686287</v>
       </c>
       <c r="T3">
-        <v>0.002275534411849546</v>
+        <v>0.0005755559301844522</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,46 +661,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.3512263333333334</v>
+        <v>0.02797766666666666</v>
       </c>
       <c r="H4">
-        <v>1.053679</v>
+        <v>0.08393299999999999</v>
       </c>
       <c r="I4">
-        <v>0.0401332777415861</v>
+        <v>0.003707942280450989</v>
       </c>
       <c r="J4">
-        <v>0.04257802749770245</v>
+        <v>0.003817227163059767</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.06916233333333333</v>
+        <v>42.038395</v>
       </c>
       <c r="N4">
-        <v>0.207487</v>
+        <v>84.07679</v>
       </c>
       <c r="O4">
-        <v>0.0004712403375823902</v>
+        <v>0.8341538717071308</v>
       </c>
       <c r="P4">
-        <v>0.0006737855263255827</v>
+        <v>0.7702799019841869</v>
       </c>
       <c r="Q4">
-        <v>0.02429163274144444</v>
+        <v>1.176136202511667</v>
       </c>
       <c r="R4">
-        <v>0.218624694673</v>
+        <v>7.05681721507</v>
       </c>
       <c r="S4">
-        <v>1.891241935123286E-05</v>
+        <v>0.00309299440930476</v>
       </c>
       <c r="T4">
-        <v>2.868845866744458E-05</v>
+        <v>0.002940333365013053</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,108 +723,108 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.3512263333333334</v>
+        <v>0.02797766666666666</v>
       </c>
       <c r="H5">
-        <v>1.053679</v>
+        <v>0.08393299999999999</v>
       </c>
       <c r="I5">
-        <v>0.0401332777415861</v>
+        <v>0.003707942280450989</v>
       </c>
       <c r="J5">
-        <v>0.04257802749770245</v>
+        <v>0.003817227163059767</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>132.35754</v>
+        <v>0.067261</v>
       </c>
       <c r="N5">
-        <v>264.71508</v>
+        <v>0.201783</v>
       </c>
       <c r="O5">
-        <v>0.9018234178214739</v>
+        <v>0.001334637622699281</v>
       </c>
       <c r="P5">
-        <v>0.8596258536877913</v>
+        <v>0.001848659891297886</v>
       </c>
       <c r="Q5">
-        <v>46.48745346322001</v>
+        <v>0.001881805837666667</v>
       </c>
       <c r="R5">
-        <v>278.92472077932</v>
+        <v>0.016936252539</v>
       </c>
       <c r="S5">
-        <v>0.03619312970129566</v>
+        <v>4.948759270287257E-06</v>
       </c>
       <c r="T5">
-        <v>0.03660117323605473</v>
+        <v>7.056754752321406E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3512263333333334</v>
+        <v>6.869302333333334</v>
       </c>
       <c r="H6">
-        <v>1.053679</v>
+        <v>20.607907</v>
       </c>
       <c r="I6">
-        <v>0.0401332777415861</v>
+        <v>0.9104038897323092</v>
       </c>
       <c r="J6">
-        <v>0.04257802749770245</v>
+        <v>0.9372363953892929</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.03413666666666666</v>
+        <v>2.804921333333333</v>
       </c>
       <c r="N6">
-        <v>0.10241</v>
+        <v>8.414764</v>
       </c>
       <c r="O6">
-        <v>0.0002325915501781441</v>
+        <v>0.05565711987895654</v>
       </c>
       <c r="P6">
-        <v>0.000332562405119371</v>
+        <v>0.07709290030149896</v>
       </c>
       <c r="Q6">
-        <v>0.01198969626555555</v>
+        <v>19.26785265988311</v>
       </c>
       <c r="R6">
-        <v>0.10790726639</v>
+        <v>173.410673938948</v>
       </c>
       <c r="S6">
-        <v>9.334661283645515E-06</v>
+        <v>0.05067045842909947</v>
       </c>
       <c r="T6">
-        <v>1.415985122987464E-05</v>
+        <v>0.07225427198868302</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +853,10 @@
         <v>20.607907</v>
       </c>
       <c r="I7">
-        <v>0.7849286692662342</v>
+        <v>0.9104038897323092</v>
       </c>
       <c r="J7">
-        <v>0.83274320824093</v>
+        <v>0.9372363953892929</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.819868333333334</v>
+        <v>5.485874</v>
       </c>
       <c r="N7">
-        <v>26.459605</v>
+        <v>16.457622</v>
       </c>
       <c r="O7">
-        <v>0.06009452733181694</v>
+        <v>0.1088543707912132</v>
       </c>
       <c r="P7">
-        <v>0.08592393201160566</v>
+        <v>0.1507785378230163</v>
       </c>
       <c r="Q7">
-        <v>60.58634212185945</v>
+        <v>37.68412706857266</v>
       </c>
       <c r="R7">
-        <v>545.2770790967351</v>
+        <v>339.157143617154</v>
       </c>
       <c r="S7">
-        <v>0.04716991736874641</v>
+        <v>0.09910144258268361</v>
       </c>
       <c r="T7">
-        <v>0.07155257080802004</v>
+        <v>0.141315133291312</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +915,40 @@
         <v>20.607907</v>
       </c>
       <c r="I8">
-        <v>0.7849286692662342</v>
+        <v>0.9104038897323092</v>
       </c>
       <c r="J8">
-        <v>0.83274320824093</v>
+        <v>0.9372363953892929</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.485874</v>
+        <v>42.038395</v>
       </c>
       <c r="N8">
-        <v>16.457622</v>
+        <v>84.07679</v>
       </c>
       <c r="O8">
-        <v>0.03737822295894862</v>
+        <v>0.8341538717071308</v>
       </c>
       <c r="P8">
-        <v>0.05344386636915803</v>
+        <v>0.7702799019841869</v>
       </c>
       <c r="Q8">
-        <v>37.68412706857266</v>
+        <v>288.7744448630884</v>
       </c>
       <c r="R8">
-        <v>339.157143617154</v>
+        <v>1732.64666917853</v>
       </c>
       <c r="S8">
-        <v>0.02933923880670414</v>
+        <v>0.7594169294374375</v>
       </c>
       <c r="T8">
-        <v>0.0445050167410522</v>
+        <v>0.7219343587764773</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,164 +977,164 @@
         <v>20.607907</v>
       </c>
       <c r="I9">
-        <v>0.7849286692662342</v>
+        <v>0.9104038897323092</v>
       </c>
       <c r="J9">
-        <v>0.83274320824093</v>
+        <v>0.9372363953892929</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.06916233333333333</v>
+        <v>0.067261</v>
       </c>
       <c r="N9">
-        <v>0.207487</v>
+        <v>0.201783</v>
       </c>
       <c r="O9">
-        <v>0.0004712403375823902</v>
+        <v>0.001334637622699281</v>
       </c>
       <c r="P9">
-        <v>0.0006737855263255827</v>
+        <v>0.001848659891297886</v>
       </c>
       <c r="Q9">
-        <v>0.4750969777454444</v>
+        <v>0.4620361442423334</v>
       </c>
       <c r="R9">
-        <v>4.275872799709</v>
+        <v>4.158325298181</v>
       </c>
       <c r="S9">
-        <v>0.0003698900510831165</v>
+        <v>0.001215059283088507</v>
       </c>
       <c r="T9">
-        <v>0.0005610903208586694</v>
+        <v>0.001732631332820793</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.6480549999999999</v>
+      </c>
+      <c r="H10">
+        <v>1.29611</v>
+      </c>
+      <c r="I10">
+        <v>0.08588816798723978</v>
+      </c>
+      <c r="J10">
+        <v>0.05894637744764746</v>
+      </c>
+      <c r="K10">
         <v>3</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>6.869302333333334</v>
-      </c>
-      <c r="H10">
-        <v>20.607907</v>
-      </c>
-      <c r="I10">
-        <v>0.7849286692662342</v>
-      </c>
-      <c r="J10">
-        <v>0.83274320824093</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>132.35754</v>
+        <v>2.804921333333333</v>
       </c>
       <c r="N10">
-        <v>264.71508</v>
+        <v>8.414764</v>
       </c>
       <c r="O10">
-        <v>0.9018234178214739</v>
+        <v>0.05565711987895654</v>
       </c>
       <c r="P10">
-        <v>0.8596258536877913</v>
+        <v>0.07709290030149896</v>
       </c>
       <c r="Q10">
-        <v>909.20395835626</v>
+        <v>1.817743294673333</v>
       </c>
       <c r="R10">
-        <v>5455.22375013756</v>
+        <v>10.90645976804</v>
       </c>
       <c r="S10">
-        <v>0.7078670552637366</v>
+        <v>0.004780288061849762</v>
       </c>
       <c r="T10">
-        <v>0.7158475912868196</v>
+        <v>0.004544347199706012</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.6480549999999999</v>
+      </c>
+      <c r="H11">
+        <v>1.29611</v>
+      </c>
+      <c r="I11">
+        <v>0.08588816798723978</v>
+      </c>
+      <c r="J11">
+        <v>0.05894637744764746</v>
+      </c>
+      <c r="K11">
         <v>3</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>6.869302333333334</v>
-      </c>
-      <c r="H11">
-        <v>20.607907</v>
-      </c>
-      <c r="I11">
-        <v>0.7849286692662342</v>
-      </c>
-      <c r="J11">
-        <v>0.83274320824093</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.03413666666666666</v>
+        <v>5.485874</v>
       </c>
       <c r="N11">
-        <v>0.10241</v>
+        <v>16.457622</v>
       </c>
       <c r="O11">
-        <v>0.0002325915501781441</v>
+        <v>0.1088543707912132</v>
       </c>
       <c r="P11">
-        <v>0.000332562405119371</v>
+        <v>0.1507785378230163</v>
       </c>
       <c r="Q11">
-        <v>0.2344950839855555</v>
+        <v>3.55514807507</v>
       </c>
       <c r="R11">
-        <v>2.11045575587</v>
+        <v>21.33088845042</v>
       </c>
       <c r="S11">
-        <v>0.0001825677759639012</v>
+        <v>0.00934930248466101</v>
       </c>
       <c r="T11">
-        <v>0.0002769390841794249</v>
+        <v>0.008887848601519907</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,13 +1142,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1160,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.5074835</v>
+        <v>0.6480549999999999</v>
       </c>
       <c r="H12">
-        <v>3.014967</v>
+        <v>1.29611</v>
       </c>
       <c r="I12">
-        <v>0.1722543222262899</v>
+        <v>0.08588816798723978</v>
       </c>
       <c r="J12">
-        <v>0.121831551953361</v>
+        <v>0.05894637744764746</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.819868333333334</v>
+        <v>42.038395</v>
       </c>
       <c r="N12">
-        <v>26.459605</v>
+        <v>84.07679</v>
       </c>
       <c r="O12">
-        <v>0.06009452733181694</v>
+        <v>0.8341538717071308</v>
       </c>
       <c r="P12">
-        <v>0.08592393201160566</v>
+        <v>0.7702799019841869</v>
       </c>
       <c r="Q12">
-        <v>13.2958059846725</v>
+        <v>27.243192071725</v>
       </c>
       <c r="R12">
-        <v>79.774835908035</v>
+        <v>108.9727682869</v>
       </c>
       <c r="S12">
-        <v>0.01035154207505138</v>
+        <v>0.07164394786038851</v>
       </c>
       <c r="T12">
-        <v>0.01046824598690899</v>
+        <v>0.04540520984269678</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,13 +1204,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1222,542 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.5074835</v>
+        <v>0.6480549999999999</v>
       </c>
       <c r="H13">
-        <v>3.014967</v>
+        <v>1.29611</v>
       </c>
       <c r="I13">
-        <v>0.1722543222262899</v>
+        <v>0.08588816798723978</v>
       </c>
       <c r="J13">
-        <v>0.121831551953361</v>
+        <v>0.05894637744764746</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>5.485874</v>
+        <v>0.067261</v>
       </c>
       <c r="N13">
-        <v>16.457622</v>
+        <v>0.201783</v>
       </c>
       <c r="O13">
-        <v>0.03737822295894862</v>
+        <v>0.001334637622699281</v>
       </c>
       <c r="P13">
-        <v>0.05344386636915803</v>
+        <v>0.001848659891297886</v>
       </c>
       <c r="Q13">
-        <v>8.269864538079</v>
+        <v>0.043588827355</v>
       </c>
       <c r="R13">
-        <v>49.619187228474</v>
+        <v>0.2615329641299999</v>
       </c>
       <c r="S13">
-        <v>0.006438560461816842</v>
+        <v>0.0001146295803404862</v>
       </c>
       <c r="T13">
-        <v>0.006511149182142559</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1.5074835</v>
-      </c>
-      <c r="H14">
-        <v>3.014967</v>
-      </c>
-      <c r="I14">
-        <v>0.1722543222262899</v>
-      </c>
-      <c r="J14">
-        <v>0.121831551953361</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M14">
-        <v>0.06916233333333333</v>
-      </c>
-      <c r="N14">
-        <v>0.207487</v>
-      </c>
-      <c r="O14">
-        <v>0.0004712403375823902</v>
-      </c>
-      <c r="P14">
-        <v>0.0006737855263255827</v>
-      </c>
-      <c r="Q14">
-        <v>0.1042610763215</v>
-      </c>
-      <c r="R14">
-        <v>0.6255664579289999</v>
-      </c>
-      <c r="S14">
-        <v>8.117318495594267E-05</v>
-      </c>
-      <c r="T14">
-        <v>8.208833635595792E-05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1.5074835</v>
-      </c>
-      <c r="H15">
-        <v>3.014967</v>
-      </c>
-      <c r="I15">
-        <v>0.1722543222262899</v>
-      </c>
-      <c r="J15">
-        <v>0.121831551953361</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>132.35754</v>
-      </c>
-      <c r="N15">
-        <v>264.71508</v>
-      </c>
-      <c r="O15">
-        <v>0.9018234178214739</v>
-      </c>
-      <c r="P15">
-        <v>0.8596258536877913</v>
-      </c>
-      <c r="Q15">
-        <v>199.52680765059</v>
-      </c>
-      <c r="R15">
-        <v>798.10723060236</v>
-      </c>
-      <c r="S15">
-        <v>0.1553429816046342</v>
-      </c>
-      <c r="T15">
-        <v>0.1047295518540164</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1.5074835</v>
-      </c>
-      <c r="H16">
-        <v>3.014967</v>
-      </c>
-      <c r="I16">
-        <v>0.1722543222262899</v>
-      </c>
-      <c r="J16">
-        <v>0.121831551953361</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.03413666666666666</v>
-      </c>
-      <c r="N16">
-        <v>0.10241</v>
-      </c>
-      <c r="O16">
-        <v>0.0002325915501781441</v>
-      </c>
-      <c r="P16">
-        <v>0.000332562405119371</v>
-      </c>
-      <c r="Q16">
-        <v>0.05146046174499999</v>
-      </c>
-      <c r="R16">
-        <v>0.3087627704699999</v>
-      </c>
-      <c r="S16">
-        <v>4.00648998314983E-05</v>
-      </c>
-      <c r="T16">
-        <v>4.051659393703533E-05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.02348666666666667</v>
-      </c>
-      <c r="H17">
-        <v>0.07046000000000001</v>
-      </c>
-      <c r="I17">
-        <v>0.00268373076588995</v>
-      </c>
-      <c r="J17">
-        <v>0.002847212308006627</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>8.819868333333334</v>
-      </c>
-      <c r="N17">
-        <v>26.459605</v>
-      </c>
-      <c r="O17">
-        <v>0.06009452733181694</v>
-      </c>
-      <c r="P17">
-        <v>0.08592393201160566</v>
-      </c>
-      <c r="Q17">
-        <v>0.2071493075888889</v>
-      </c>
-      <c r="R17">
-        <v>1.8643437683</v>
-      </c>
-      <c r="S17">
-        <v>0.0001612775318620116</v>
-      </c>
-      <c r="T17">
-        <v>0.0002446436767757682</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G18">
-        <v>0.02348666666666667</v>
-      </c>
-      <c r="H18">
-        <v>0.07046000000000001</v>
-      </c>
-      <c r="I18">
-        <v>0.00268373076588995</v>
-      </c>
-      <c r="J18">
-        <v>0.002847212308006627</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>5.485874</v>
-      </c>
-      <c r="N18">
-        <v>16.457622</v>
-      </c>
-      <c r="O18">
-        <v>0.03737822295894862</v>
-      </c>
-      <c r="P18">
-        <v>0.05344386636915803</v>
-      </c>
-      <c r="Q18">
-        <v>0.1288448940133333</v>
-      </c>
-      <c r="R18">
-        <v>1.15960404612</v>
-      </c>
-      <c r="S18">
-        <v>0.0001003130869292245</v>
-      </c>
-      <c r="T18">
-        <v>0.0001521660341137282</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G19">
-        <v>0.02348666666666667</v>
-      </c>
-      <c r="H19">
-        <v>0.07046000000000001</v>
-      </c>
-      <c r="I19">
-        <v>0.00268373076588995</v>
-      </c>
-      <c r="J19">
-        <v>0.002847212308006627</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M19">
-        <v>0.06916233333333333</v>
-      </c>
-      <c r="N19">
-        <v>0.207487</v>
-      </c>
-      <c r="O19">
-        <v>0.0004712403375823902</v>
-      </c>
-      <c r="P19">
-        <v>0.0006737855263255827</v>
-      </c>
-      <c r="Q19">
-        <v>0.001624392668888889</v>
-      </c>
-      <c r="R19">
-        <v>0.01461953402</v>
-      </c>
-      <c r="S19">
-        <v>1.264682192098227E-06</v>
-      </c>
-      <c r="T19">
-        <v>1.918410443510922E-06</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.02348666666666667</v>
-      </c>
-      <c r="H20">
-        <v>0.07046000000000001</v>
-      </c>
-      <c r="I20">
-        <v>0.00268373076588995</v>
-      </c>
-      <c r="J20">
-        <v>0.002847212308006627</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>132.35754</v>
-      </c>
-      <c r="N20">
-        <v>264.71508</v>
-      </c>
-      <c r="O20">
-        <v>0.9018234178214739</v>
-      </c>
-      <c r="P20">
-        <v>0.8596258536877913</v>
-      </c>
-      <c r="Q20">
-        <v>3.1086374228</v>
-      </c>
-      <c r="R20">
-        <v>18.6518245368</v>
-      </c>
-      <c r="S20">
-        <v>0.002420251251807517</v>
-      </c>
-      <c r="T20">
-        <v>0.002447537310900584</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.02348666666666667</v>
-      </c>
-      <c r="H21">
-        <v>0.07046000000000001</v>
-      </c>
-      <c r="I21">
-        <v>0.00268373076588995</v>
-      </c>
-      <c r="J21">
-        <v>0.002847212308006627</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.03413666666666666</v>
-      </c>
-      <c r="N21">
-        <v>0.10241</v>
-      </c>
-      <c r="O21">
-        <v>0.0002325915501781441</v>
-      </c>
-      <c r="P21">
-        <v>0.000332562405119371</v>
-      </c>
-      <c r="Q21">
-        <v>0.0008017565111111112</v>
-      </c>
-      <c r="R21">
-        <v>0.0072158086</v>
-      </c>
-      <c r="S21">
-        <v>6.242130990991214E-07</v>
-      </c>
-      <c r="T21">
-        <v>9.468757730361593E-07</v>
+        <v>0.0001089718037247721</v>
       </c>
     </row>
   </sheetData>
